--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/04.TraBH/TBH201202_GpsQuocHung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/04.TraBH/TBH201202_GpsQuocHung.xlsx
@@ -760,6 +760,69 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -789,69 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1230,77 +1230,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="55" t="s">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="58" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="58" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="61" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="17"/>
       <c r="F6" s="32"/>
       <c r="G6" s="12"/>
@@ -1309,58 +1309,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="69"/>
       <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1418,16 +1418,16 @@
       <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="41">
         <f>SUM(I12:I12)</f>
         <v>0</v>
@@ -1553,8 +1553,8 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A22:E22"/>
   </mergeCells>
-  <pageMargins left="0.3" right="0.3" top="1.5" bottom="2" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.9055118110236221" bottom="0.62992125984251968" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
